--- a/SeleniumJava/login.xlsx
+++ b/SeleniumJava/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Learning\SeleniumJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C525AB-6716-41D3-8572-1A703794E293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB38E562-F432-41D7-821D-509536F95887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="2310" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>admin01@gmail.com</t>
   </si>
   <si>
     <t>admin01</t>
+  </si>
+  <si>
+    <t>admin02</t>
+  </si>
+  <si>
+    <t>admin03</t>
+  </si>
+  <si>
+    <t>admin02@gmail.com</t>
+  </si>
+  <si>
+    <t>admin03@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +61,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -359,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,9 +397,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{A135B9A4-3D67-4262-ABCE-826E68F26835}"/>
+    <hyperlink ref="A2:A3" r:id="rId2" display="admin01@gmail.com" xr:uid="{6F725CB4-A2FC-4091-AE1A-2D1DD11E1E45}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{E34BDA82-D042-4A5D-BEB5-48E9D2BFA749}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{6465C139-4C61-41F2-9B96-A7B438722D65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
